--- a/Tests/baseline_sma_5_25_DY.xlsx
+++ b/Tests/baseline_sma_5_25_DY.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Windows\Documents\bt_plat\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4738EF-F496-4C7D-83AC-74263B9F584B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74506E7-A004-46C2-98E0-7E23D462537B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tests" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="20">
   <si>
     <t>Symbol</t>
   </si>
@@ -120,10 +121,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2959,4 +2963,1951 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4959F562-266E-4941-9FFA-72E8A2696D88}">
+  <dimension ref="A1:P48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40840</v>
+      </c>
+      <c r="D2">
+        <v>18.86</v>
+      </c>
+      <c r="E2" s="1">
+        <v>40870</v>
+      </c>
+      <c r="F2">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-2.92E-2</v>
+      </c>
+      <c r="H2">
+        <v>-29.15</v>
+      </c>
+      <c r="I2" s="2">
+        <v>-2.92E-2</v>
+      </c>
+      <c r="J2">
+        <v>53</v>
+      </c>
+      <c r="K2">
+        <v>999.58</v>
+      </c>
+      <c r="L2">
+        <v>-29.15</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40879</v>
+      </c>
+      <c r="D3">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40896</v>
+      </c>
+      <c r="F3">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-4.7899999999999998E-2</v>
+      </c>
+      <c r="H3">
+        <v>-47.5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-4.7899999999999998E-2</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>992.5</v>
+      </c>
+      <c r="L3">
+        <v>-76.650000000000006</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40898</v>
+      </c>
+      <c r="D4">
+        <v>20.03</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40967</v>
+      </c>
+      <c r="F4">
+        <v>22.07</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.1018</v>
+      </c>
+      <c r="H4">
+        <v>99.96</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.1018</v>
+      </c>
+      <c r="J4">
+        <v>49</v>
+      </c>
+      <c r="K4">
+        <v>981.47</v>
+      </c>
+      <c r="L4">
+        <v>23.31</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40982</v>
+      </c>
+      <c r="D5">
+        <v>22.96</v>
+      </c>
+      <c r="E5" s="1">
+        <v>41009</v>
+      </c>
+      <c r="F5">
+        <v>21.98</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-4.2700000000000002E-2</v>
+      </c>
+      <c r="H5">
+        <v>-42.14</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-4.2700000000000002E-2</v>
+      </c>
+      <c r="J5">
+        <v>43</v>
+      </c>
+      <c r="K5">
+        <v>987.28</v>
+      </c>
+      <c r="L5">
+        <v>-18.829999999999998</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>41029</v>
+      </c>
+      <c r="D6">
+        <v>23.39</v>
+      </c>
+      <c r="E6" s="1">
+        <v>41038</v>
+      </c>
+      <c r="F6">
+        <v>22.15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>-52.08</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="J6">
+        <v>42</v>
+      </c>
+      <c r="K6">
+        <v>982.38</v>
+      </c>
+      <c r="L6">
+        <v>-70.91</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>41093</v>
+      </c>
+      <c r="D7">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>41106</v>
+      </c>
+      <c r="F7">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-8.5099999999999995E-2</v>
+      </c>
+      <c r="H7">
+        <v>-83</v>
+      </c>
+      <c r="I7" s="2">
+        <v>-8.5099999999999995E-2</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <v>975.5</v>
+      </c>
+      <c r="L7">
+        <v>-153.91</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>41130</v>
+      </c>
+      <c r="D8">
+        <v>18.05</v>
+      </c>
+      <c r="E8" s="1">
+        <v>41150</v>
+      </c>
+      <c r="F8">
+        <v>15.28</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-0.1535</v>
+      </c>
+      <c r="H8">
+        <v>-149.58000000000001</v>
+      </c>
+      <c r="I8" s="2">
+        <v>-0.1535</v>
+      </c>
+      <c r="J8">
+        <v>54</v>
+      </c>
+      <c r="K8">
+        <v>974.7</v>
+      </c>
+      <c r="L8">
+        <v>-303.49</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>41213</v>
+      </c>
+      <c r="D9">
+        <v>14.24</v>
+      </c>
+      <c r="E9" s="1">
+        <v>41312</v>
+      </c>
+      <c r="F9">
+        <v>20.39</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.43190000000000001</v>
+      </c>
+      <c r="H9">
+        <v>418.2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.43190000000000001</v>
+      </c>
+      <c r="J9">
+        <v>68</v>
+      </c>
+      <c r="K9">
+        <v>968.32</v>
+      </c>
+      <c r="L9">
+        <v>114.71</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>41327</v>
+      </c>
+      <c r="D10">
+        <v>21.4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>41339</v>
+      </c>
+      <c r="F10">
+        <v>21.05</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-1.6400000000000001E-2</v>
+      </c>
+      <c r="H10">
+        <v>-16.45</v>
+      </c>
+      <c r="I10" s="2">
+        <v>-1.6400000000000001E-2</v>
+      </c>
+      <c r="J10">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>1005.8</v>
+      </c>
+      <c r="L10">
+        <v>98.26</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>41341</v>
+      </c>
+      <c r="D11">
+        <v>21.62</v>
+      </c>
+      <c r="E11" s="1">
+        <v>41353</v>
+      </c>
+      <c r="F11">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-5.6399999999999999E-2</v>
+      </c>
+      <c r="H11">
+        <v>-56.12</v>
+      </c>
+      <c r="I11" s="2">
+        <v>-5.6399999999999999E-2</v>
+      </c>
+      <c r="J11">
+        <v>46</v>
+      </c>
+      <c r="K11">
+        <v>994.52</v>
+      </c>
+      <c r="L11">
+        <v>42.14</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>41390</v>
+      </c>
+      <c r="D12">
+        <v>19.07</v>
+      </c>
+      <c r="E12" s="1">
+        <v>41451</v>
+      </c>
+      <c r="F12">
+        <v>22.69</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.1898</v>
+      </c>
+      <c r="H12">
+        <v>188.24</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.1898</v>
+      </c>
+      <c r="J12">
+        <v>52</v>
+      </c>
+      <c r="K12">
+        <v>991.64</v>
+      </c>
+      <c r="L12">
+        <v>230.38</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>41456</v>
+      </c>
+      <c r="D13">
+        <v>23.35</v>
+      </c>
+      <c r="E13" s="1">
+        <v>41505</v>
+      </c>
+      <c r="F13">
+        <v>25.46</v>
+      </c>
+      <c r="G13" s="2">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="H13">
+        <v>90.73</v>
+      </c>
+      <c r="I13" s="2">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="J13">
+        <v>43</v>
+      </c>
+      <c r="K13">
+        <v>1004.05</v>
+      </c>
+      <c r="L13">
+        <v>321.11</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>41527</v>
+      </c>
+      <c r="D14">
+        <v>26.71</v>
+      </c>
+      <c r="E14" s="1">
+        <v>41585</v>
+      </c>
+      <c r="F14">
+        <v>28.54</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="H14">
+        <v>69.540000000000006</v>
+      </c>
+      <c r="I14" s="2">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="J14">
+        <v>38</v>
+      </c>
+      <c r="K14">
+        <v>1014.98</v>
+      </c>
+      <c r="L14">
+        <v>390.65</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1">
+        <v>41647</v>
+      </c>
+      <c r="D15">
+        <v>28.04</v>
+      </c>
+      <c r="E15" s="1">
+        <v>41669</v>
+      </c>
+      <c r="F15">
+        <v>27.94</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="H15">
+        <v>-3.7</v>
+      </c>
+      <c r="I15" s="2">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="J15">
+        <v>37</v>
+      </c>
+      <c r="K15">
+        <v>1037.48</v>
+      </c>
+      <c r="L15">
+        <v>386.95</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1">
+        <v>41697</v>
+      </c>
+      <c r="D16">
+        <v>27.74</v>
+      </c>
+      <c r="E16" s="1">
+        <v>41732</v>
+      </c>
+      <c r="F16">
+        <v>31.3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.1283</v>
+      </c>
+      <c r="H16">
+        <v>131.72</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.1283</v>
+      </c>
+      <c r="J16">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <v>1026.3800000000001</v>
+      </c>
+      <c r="L16">
+        <v>518.66999999999996</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>41746</v>
+      </c>
+      <c r="D17">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="E17" s="1">
+        <v>41759</v>
+      </c>
+      <c r="F17">
+        <v>31.4</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-3.6499999999999998E-2</v>
+      </c>
+      <c r="H17">
+        <v>-38.08</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-3.6499999999999998E-2</v>
+      </c>
+      <c r="J17">
+        <v>32</v>
+      </c>
+      <c r="K17">
+        <v>1042.8800000000001</v>
+      </c>
+      <c r="L17">
+        <v>480.59</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>41765</v>
+      </c>
+      <c r="D18">
+        <v>31.29</v>
+      </c>
+      <c r="E18" s="1">
+        <v>41768</v>
+      </c>
+      <c r="F18">
+        <v>32.01</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H18">
+        <v>23.76</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J18">
+        <v>33</v>
+      </c>
+      <c r="K18">
+        <v>1032.57</v>
+      </c>
+      <c r="L18">
+        <v>504.35</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>41771</v>
+      </c>
+      <c r="D19">
+        <v>32.81</v>
+      </c>
+      <c r="E19" s="1">
+        <v>41780</v>
+      </c>
+      <c r="F19">
+        <v>29.36</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-0.1052</v>
+      </c>
+      <c r="H19">
+        <v>-110.4</v>
+      </c>
+      <c r="I19" s="2">
+        <v>-0.1052</v>
+      </c>
+      <c r="J19">
+        <v>32</v>
+      </c>
+      <c r="K19">
+        <v>1049.92</v>
+      </c>
+      <c r="L19">
+        <v>393.95</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>41800</v>
+      </c>
+      <c r="D20">
+        <v>32.24</v>
+      </c>
+      <c r="E20" s="1">
+        <v>41816</v>
+      </c>
+      <c r="F20">
+        <v>30.61</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-5.0599999999999999E-2</v>
+      </c>
+      <c r="H20">
+        <v>-52.16</v>
+      </c>
+      <c r="I20" s="2">
+        <v>-5.0599999999999999E-2</v>
+      </c>
+      <c r="J20">
+        <v>32</v>
+      </c>
+      <c r="K20">
+        <v>1031.68</v>
+      </c>
+      <c r="L20">
+        <v>341.79</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>41820</v>
+      </c>
+      <c r="D21">
+        <v>31.31</v>
+      </c>
+      <c r="E21" s="1">
+        <v>41830</v>
+      </c>
+      <c r="F21">
+        <v>29.57</v>
+      </c>
+      <c r="G21" s="2">
+        <v>-5.5599999999999997E-2</v>
+      </c>
+      <c r="H21">
+        <v>-57.42</v>
+      </c>
+      <c r="I21" s="2">
+        <v>-5.5599999999999997E-2</v>
+      </c>
+      <c r="J21">
+        <v>33</v>
+      </c>
+      <c r="K21">
+        <v>1033.23</v>
+      </c>
+      <c r="L21">
+        <v>284.37</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1">
+        <v>41869</v>
+      </c>
+      <c r="D22">
+        <v>29.47</v>
+      </c>
+      <c r="E22" s="1">
+        <v>41911</v>
+      </c>
+      <c r="F22">
+        <v>31.24</v>
+      </c>
+      <c r="G22" s="2">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="H22">
+        <v>60.18</v>
+      </c>
+      <c r="I22" s="2">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="J22">
+        <v>34</v>
+      </c>
+      <c r="K22">
+        <v>1001.98</v>
+      </c>
+      <c r="L22">
+        <v>344.55</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1">
+        <v>41941</v>
+      </c>
+      <c r="D23">
+        <v>29.68</v>
+      </c>
+      <c r="E23" s="1">
+        <v>41956</v>
+      </c>
+      <c r="F23">
+        <v>26.54</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-0.10580000000000001</v>
+      </c>
+      <c r="H23">
+        <v>-106.76</v>
+      </c>
+      <c r="I23" s="2">
+        <v>-0.10580000000000001</v>
+      </c>
+      <c r="J23">
+        <v>34</v>
+      </c>
+      <c r="K23">
+        <v>1009.12</v>
+      </c>
+      <c r="L23">
+        <v>237.79</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1">
+        <v>41971</v>
+      </c>
+      <c r="D24">
+        <v>30.59</v>
+      </c>
+      <c r="E24" s="1">
+        <v>42019</v>
+      </c>
+      <c r="F24">
+        <v>31.74</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="H24">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="I24" s="2">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="J24">
+        <v>33</v>
+      </c>
+      <c r="K24">
+        <v>1009.47</v>
+      </c>
+      <c r="L24">
+        <v>275.74</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1">
+        <v>42040</v>
+      </c>
+      <c r="D25">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="E25" s="1">
+        <v>42116</v>
+      </c>
+      <c r="F25">
+        <v>48.32</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="H25">
+        <v>360.36</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="J25">
+        <v>28</v>
+      </c>
+      <c r="K25">
+        <v>992.6</v>
+      </c>
+      <c r="L25">
+        <v>636.1</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1">
+        <v>42122</v>
+      </c>
+      <c r="D26">
+        <v>49.03</v>
+      </c>
+      <c r="E26" s="1">
+        <v>42124</v>
+      </c>
+      <c r="F26">
+        <v>45.98</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-6.2199999999999998E-2</v>
+      </c>
+      <c r="H26">
+        <v>-64.05</v>
+      </c>
+      <c r="I26" s="2">
+        <v>-6.2199999999999998E-2</v>
+      </c>
+      <c r="J26">
+        <v>21</v>
+      </c>
+      <c r="K26">
+        <v>1029.6300000000001</v>
+      </c>
+      <c r="L26">
+        <v>572.04999999999995</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1">
+        <v>42144</v>
+      </c>
+      <c r="D27">
+        <v>56.58</v>
+      </c>
+      <c r="E27" s="1">
+        <v>42214</v>
+      </c>
+      <c r="F27">
+        <v>65.41</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.15609999999999999</v>
+      </c>
+      <c r="H27">
+        <v>158.94</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.15609999999999999</v>
+      </c>
+      <c r="J27">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <v>1018.44</v>
+      </c>
+      <c r="L27">
+        <v>730.99</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1">
+        <v>42230</v>
+      </c>
+      <c r="D28">
+        <v>67.77</v>
+      </c>
+      <c r="E28" s="1">
+        <v>42240</v>
+      </c>
+      <c r="F28">
+        <v>59.38</v>
+      </c>
+      <c r="G28" s="2">
+        <v>-0.12379999999999999</v>
+      </c>
+      <c r="H28">
+        <v>-125.85</v>
+      </c>
+      <c r="I28" s="2">
+        <v>-0.12379999999999999</v>
+      </c>
+      <c r="J28">
+        <v>15</v>
+      </c>
+      <c r="K28">
+        <v>1016.55</v>
+      </c>
+      <c r="L28">
+        <v>605.14</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1">
+        <v>42244</v>
+      </c>
+      <c r="D29">
+        <v>71.14</v>
+      </c>
+      <c r="E29" s="1">
+        <v>42277</v>
+      </c>
+      <c r="F29">
+        <v>72.36</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="H29">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="J29">
+        <v>14</v>
+      </c>
+      <c r="K29">
+        <v>995.96</v>
+      </c>
+      <c r="L29">
+        <v>622.22</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1">
+        <v>42286</v>
+      </c>
+      <c r="D30">
+        <v>78.290000000000006</v>
+      </c>
+      <c r="E30" s="1">
+        <v>42293</v>
+      </c>
+      <c r="F30">
+        <v>75.2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>-3.95E-2</v>
+      </c>
+      <c r="H30">
+        <v>-40.17</v>
+      </c>
+      <c r="I30" s="2">
+        <v>-3.95E-2</v>
+      </c>
+      <c r="J30">
+        <v>13</v>
+      </c>
+      <c r="K30">
+        <v>1017.77</v>
+      </c>
+      <c r="L30">
+        <v>582.04999999999995</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42297</v>
+      </c>
+      <c r="D31">
+        <v>78.63</v>
+      </c>
+      <c r="E31" s="1">
+        <v>42347</v>
+      </c>
+      <c r="F31">
+        <v>81.61</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H31">
+        <v>38.74</v>
+      </c>
+      <c r="I31" s="2">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
+      </c>
+      <c r="K31">
+        <v>1022.19</v>
+      </c>
+      <c r="L31">
+        <v>620.79</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1">
+        <v>42425</v>
+      </c>
+      <c r="D32">
+        <v>58.37</v>
+      </c>
+      <c r="E32" s="1">
+        <v>42585</v>
+      </c>
+      <c r="F32">
+        <v>91.05</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.55989999999999995</v>
+      </c>
+      <c r="H32">
+        <v>588.24</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.55989999999999995</v>
+      </c>
+      <c r="J32">
+        <v>18</v>
+      </c>
+      <c r="K32">
+        <v>1050.6600000000001</v>
+      </c>
+      <c r="L32">
+        <v>1209.03</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="4">
+        <v>42641</v>
+      </c>
+      <c r="D33" s="3">
+        <v>83.73</v>
+      </c>
+      <c r="E33" s="4">
+        <v>42642</v>
+      </c>
+      <c r="F33" s="3">
+        <v>82.1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>-1.95E-2</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-21.19</v>
+      </c>
+      <c r="I33" s="5">
+        <v>-1.95E-2</v>
+      </c>
+      <c r="J33" s="3">
+        <v>13</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1088.49</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1187.8399999999999</v>
+      </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1">
+        <v>42647</v>
+      </c>
+      <c r="D34">
+        <v>85.25</v>
+      </c>
+      <c r="E34" s="1">
+        <v>42669</v>
+      </c>
+      <c r="F34">
+        <v>72.5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>-0.14960000000000001</v>
+      </c>
+      <c r="H34">
+        <v>-165.75</v>
+      </c>
+      <c r="I34" s="2">
+        <v>-0.14960000000000001</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+      <c r="K34">
+        <v>1108.25</v>
+      </c>
+      <c r="L34">
+        <v>1022.09</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1">
+        <v>42685</v>
+      </c>
+      <c r="D35">
+        <v>87.26</v>
+      </c>
+      <c r="E35" s="1">
+        <v>42702</v>
+      </c>
+      <c r="F35">
+        <v>72.69</v>
+      </c>
+      <c r="G35" s="2">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="H35">
+        <v>-174.84</v>
+      </c>
+      <c r="I35" s="2">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="J35">
+        <v>12</v>
+      </c>
+      <c r="K35">
+        <v>1047.1199999999999</v>
+      </c>
+      <c r="L35">
+        <v>847.25</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1">
+        <v>42725</v>
+      </c>
+      <c r="D36">
+        <v>81.72</v>
+      </c>
+      <c r="E36" s="1">
+        <v>42746</v>
+      </c>
+      <c r="F36">
+        <v>79.55</v>
+      </c>
+      <c r="G36" s="2">
+        <v>-2.6599999999999999E-2</v>
+      </c>
+      <c r="H36">
+        <v>-28.21</v>
+      </c>
+      <c r="I36" s="2">
+        <v>-2.6599999999999999E-2</v>
+      </c>
+      <c r="J36">
+        <v>13</v>
+      </c>
+      <c r="K36">
+        <v>1062.3599999999999</v>
+      </c>
+      <c r="L36">
+        <v>819.04</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1">
+        <v>42765</v>
+      </c>
+      <c r="D37">
+        <v>80.319999999999993</v>
+      </c>
+      <c r="E37" s="1">
+        <v>42772</v>
+      </c>
+      <c r="F37">
+        <v>78</v>
+      </c>
+      <c r="G37" s="2">
+        <v>-2.8899999999999999E-2</v>
+      </c>
+      <c r="H37">
+        <v>-30.16</v>
+      </c>
+      <c r="I37" s="2">
+        <v>-2.8899999999999999E-2</v>
+      </c>
+      <c r="J37">
+        <v>13</v>
+      </c>
+      <c r="K37">
+        <v>1044.1600000000001</v>
+      </c>
+      <c r="L37">
+        <v>788.88</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1">
+        <v>42781</v>
+      </c>
+      <c r="D38">
+        <v>81.73</v>
+      </c>
+      <c r="E38" s="1">
+        <v>42821</v>
+      </c>
+      <c r="F38">
+        <v>91.17</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.11550000000000001</v>
+      </c>
+      <c r="H38">
+        <v>122.72</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.11550000000000001</v>
+      </c>
+      <c r="J38">
+        <v>13</v>
+      </c>
+      <c r="K38">
+        <v>1062.49</v>
+      </c>
+      <c r="L38">
+        <v>911.6</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1">
+        <v>42832</v>
+      </c>
+      <c r="D39">
+        <v>94.53</v>
+      </c>
+      <c r="E39" s="1">
+        <v>42878</v>
+      </c>
+      <c r="F39">
+        <v>108.05</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H39">
+        <v>148.72</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="J39">
+        <v>11</v>
+      </c>
+      <c r="K39">
+        <v>1039.83</v>
+      </c>
+      <c r="L39">
+        <v>1060.32</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="1">
+        <v>42909</v>
+      </c>
+      <c r="D40">
+        <v>91.55</v>
+      </c>
+      <c r="E40" s="1">
+        <v>42933</v>
+      </c>
+      <c r="F40">
+        <v>88.39</v>
+      </c>
+      <c r="G40" s="2">
+        <v>-3.4500000000000003E-2</v>
+      </c>
+      <c r="H40">
+        <v>-37.92</v>
+      </c>
+      <c r="I40" s="2">
+        <v>-3.4500000000000003E-2</v>
+      </c>
+      <c r="J40">
+        <v>12</v>
+      </c>
+      <c r="K40">
+        <v>1098.5999999999999</v>
+      </c>
+      <c r="L40">
+        <v>1022.4</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="1">
+        <v>42944</v>
+      </c>
+      <c r="D41">
+        <v>90.3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>42950</v>
+      </c>
+      <c r="F41">
+        <v>84.56</v>
+      </c>
+      <c r="G41" s="2">
+        <v>-6.3600000000000004E-2</v>
+      </c>
+      <c r="H41">
+        <v>-68.88</v>
+      </c>
+      <c r="I41" s="2">
+        <v>-6.3600000000000004E-2</v>
+      </c>
+      <c r="J41">
+        <v>12</v>
+      </c>
+      <c r="K41">
+        <v>1083.5999999999999</v>
+      </c>
+      <c r="L41">
+        <v>953.52</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="1">
+        <v>42997</v>
+      </c>
+      <c r="D42">
+        <v>80.25</v>
+      </c>
+      <c r="E42" s="1">
+        <v>43139</v>
+      </c>
+      <c r="F42">
+        <v>111.5</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.38940000000000002</v>
+      </c>
+      <c r="H42">
+        <v>406.25</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.38940000000000002</v>
+      </c>
+      <c r="J42">
+        <v>13</v>
+      </c>
+      <c r="K42">
+        <v>1043.25</v>
+      </c>
+      <c r="L42">
+        <v>1359.77</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43173</v>
+      </c>
+      <c r="D43">
+        <v>113.71</v>
+      </c>
+      <c r="E43" s="1">
+        <v>43179</v>
+      </c>
+      <c r="F43">
+        <v>109.63</v>
+      </c>
+      <c r="G43" s="2">
+        <v>-3.5900000000000001E-2</v>
+      </c>
+      <c r="H43">
+        <v>-36.72</v>
+      </c>
+      <c r="I43" s="2">
+        <v>-3.5900000000000001E-2</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+      <c r="K43">
+        <v>1023.39</v>
+      </c>
+      <c r="L43">
+        <v>1323.05</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43210</v>
+      </c>
+      <c r="D44">
+        <v>104.6</v>
+      </c>
+      <c r="E44" s="1">
+        <v>43214</v>
+      </c>
+      <c r="F44">
+        <v>104.99</v>
+      </c>
+      <c r="G44" s="2">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="H44">
+        <v>3.9</v>
+      </c>
+      <c r="I44" s="2">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <v>1046</v>
+      </c>
+      <c r="L44">
+        <v>1326.95</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43217</v>
+      </c>
+      <c r="D45">
+        <v>106.65</v>
+      </c>
+      <c r="E45" s="1">
+        <v>43220</v>
+      </c>
+      <c r="F45">
+        <v>103.85</v>
+      </c>
+      <c r="G45" s="2">
+        <v>-2.63E-2</v>
+      </c>
+      <c r="H45">
+        <v>-28</v>
+      </c>
+      <c r="I45" s="2">
+        <v>-2.63E-2</v>
+      </c>
+      <c r="J45">
+        <v>10</v>
+      </c>
+      <c r="K45">
+        <v>1066.5</v>
+      </c>
+      <c r="L45">
+        <v>1298.95</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43229</v>
+      </c>
+      <c r="D46">
+        <v>109.51</v>
+      </c>
+      <c r="E46" s="1">
+        <v>43243</v>
+      </c>
+      <c r="F46">
+        <v>92.03</v>
+      </c>
+      <c r="G46" s="2">
+        <v>-0.15959999999999999</v>
+      </c>
+      <c r="H46">
+        <v>-174.8</v>
+      </c>
+      <c r="I46" s="2">
+        <v>-0.15959999999999999</v>
+      </c>
+      <c r="J46">
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <v>1095.0999999999999</v>
+      </c>
+      <c r="L46">
+        <v>1124.1500000000001</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43271</v>
+      </c>
+      <c r="D47">
+        <v>99.42</v>
+      </c>
+      <c r="E47" s="1">
+        <v>43280</v>
+      </c>
+      <c r="F47">
+        <v>94.52</v>
+      </c>
+      <c r="G47" s="2">
+        <v>-4.9299999999999997E-2</v>
+      </c>
+      <c r="H47">
+        <v>-53.9</v>
+      </c>
+      <c r="I47" s="2">
+        <v>-4.9299999999999997E-2</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+      <c r="K47">
+        <v>1093.6199999999999</v>
+      </c>
+      <c r="L47">
+        <v>1070.25</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43290</v>
+      </c>
+      <c r="D48">
+        <v>99.26</v>
+      </c>
+      <c r="E48" s="1">
+        <v>43305</v>
+      </c>
+      <c r="F48">
+        <v>92.21</v>
+      </c>
+      <c r="G48" s="2">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="H48">
+        <v>-77.55</v>
+      </c>
+      <c r="I48" s="2">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="J48">
+        <v>11</v>
+      </c>
+      <c r="K48">
+        <v>1091.8599999999999</v>
+      </c>
+      <c r="L48">
+        <v>992.7</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>